--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>名称</t>
   </si>
@@ -25,6 +25,9 @@
     <t>图标</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>克隆窝</t>
   </si>
   <si>
@@ -34,22 +37,34 @@
     <t>https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png</t>
   </si>
   <si>
+    <t>yyds的网站</t>
+  </si>
+  <si>
     <t>github</t>
   </si>
   <si>
     <t>https://github.io</t>
   </si>
   <si>
-    <t>https://github.com/fluidicon.png</t>
-  </si>
-  <si>
-    <t>武汉</t>
-  </si>
-  <si>
-    <t>NB Charts</t>
-  </si>
-  <si>
-    <t>NB Map</t>
+    <t>https://pngimg.com/uploads/github/github_PNG40.png</t>
+  </si>
+  <si>
+    <t>github程序员的网站</t>
+  </si>
+  <si>
+    <t>夏禹</t>
+  </si>
+  <si>
+    <t>https://xiadj.cf</t>
+  </si>
+  <si>
+    <t>https://www.nbchart.com/images/32.png</t>
+  </si>
+  <si>
+    <t>xiadjnb666</t>
+  </si>
+  <si>
+    <t>志明</t>
   </si>
 </sst>
 </file>
@@ -57,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,30 +86,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,61 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,44 +229,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -231,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,10 +433,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -449,17 +474,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,13 +498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,183 +530,174 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1004,18 +1018,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1025,51 +1039,168 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1208,25 @@
     <hyperlink ref="B2" r:id="rId1" display="https://www.kelongwo.com"/>
     <hyperlink ref="C2" r:id="rId2" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
     <hyperlink ref="B3" r:id="rId3" display="https://github.io"/>
-    <hyperlink ref="C3" r:id="rId4" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="C3" r:id="rId4" display="https://pngimg.com/uploads/github/github_PNG40.png" tooltip="https://pngimg.com/uploads/github/github_PNG40.png"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.kelongwo.com"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://github.io"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://pngimg.com/uploads/github/github_PNG40.png" tooltip="https://pngimg.com/uploads/github/github_PNG40.png"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://www.kelongwo.com"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://github.io"/>
+    <hyperlink ref="C7" r:id="rId4" display="https://pngimg.com/uploads/github/github_PNG40.png" tooltip="https://pngimg.com/uploads/github/github_PNG40.png"/>
+    <hyperlink ref="B8" r:id="rId1" display="https://www.kelongwo.com"/>
+    <hyperlink ref="C8" r:id="rId2" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://github.io"/>
+    <hyperlink ref="C9" r:id="rId4" display="https://pngimg.com/uploads/github/github_PNG40.png" tooltip="https://pngimg.com/uploads/github/github_PNG40.png"/>
+    <hyperlink ref="B10" r:id="rId5" display="https://xiadj.cf"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://www.nbchart.com/images/32.png"/>
+    <hyperlink ref="B11" r:id="rId5" display="https://xiadj.cf"/>
+    <hyperlink ref="C11" r:id="rId6" display="https://www.nbchart.com/images/32.png"/>
+    <hyperlink ref="B12" r:id="rId5" display="https://xiadj.cf"/>
+    <hyperlink ref="C12" r:id="rId6" display="https://www.nbchart.com/images/32.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
